--- a/similarities/split_global/harmonic_similarity_timestamps_366.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_366.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,762 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:33.620000')]</t>
+          <t>('0:00:37.020000', '0:00:49.640000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:53.820000', '0:01:02.520000')]</t>
+          <t>('0:01:39.280000', '0:01:54.020000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=37.02</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=53.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=99.28</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:23.120000')]</t>
+          <t>('0:01:03.840000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
+          <t>['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.460000', '0:00:05.060000'), ('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:20.440000', '0:00:26.160000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:23.840000'), ('0:01:14.400000', '0:01:26.060000')]</t>
+          <t>('0:00:53.480000', '0:00:57.460000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46', 'https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=20.44</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=53.48</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:27.250000', '0:00:30.810000')]</t>
+          <t>('0:00:57.480000', '0:01:04.580000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:55.620000', '0:01:03.080000')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=27.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=55.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:55.680000', '0:01:02.280000')]</t>
+          <t>('0:00:16.800000', '0:00:19.040000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_12</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_88</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:7']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:7']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:17.890000', '0:00:21.530000')]</t>
+          <t>('0:01:58.180000', '0:02:03.040000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:13.420000', '0:00:21.240000')]</t>
+          <t>('0:01:24.620000', '0:01:31.740000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-12#t=17.89']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=118.18</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=13.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#'], ['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min', 'A#:min/F']]</t>
+          <t>['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['G:min', 'A:hdim7/C', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:04:31.220000', '0:04:38.420000'), ('0:00:24.680000', '0:00:31.240000'), ('0:00:08.400000', '0:00:12.140000')]</t>
+          <t>('0:01:36.200000', '0:01:53.760000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:17.720000', '0:01:28'), ('0:00:46.520000', '0:00:48.940000'), ('0:01:39.600000', '0:01:51.620000')]</t>
+          <t>('0:00:09.180000', '0:00:15.600000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=8.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=96.2</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=99.6']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=9.18</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_56</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+          <t>('0:00:42.080000', '0:00:57.880000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=58.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=42.08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-56#t=21.88']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:09.100000', '0:00:13.860000')]</t>
+          <t>('0:01:24.620000', '0:01:31.740000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
+          <t>('0:02:11.200000', '0:02:16.340000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['F:min/C', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab'], ['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:07.340000'), ('0:00:49.280000', '0:00:56.880000')]</t>
+          <t>('0:00:43.680000', '0:00:45.800000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:25.220000', '0:00:27.170000'), ('0:00:23.910000', '0:00:25.870000')]</t>
+          <t>('0:02:10.840000', '0:02:15.980000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=0.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=49.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=23.91']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:min', 'G#:dim7', 'A:min', 'G#:dim7'], ['E:7', 'A:min', 'G#:dim7', 'A:min']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C'], ['G:7', 'C:min', 'B:dim7/C', 'C:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:20.660000', '0:00:26.400000'), ('0:00:19.280000', '0:00:24.940000')]</t>
+          <t>('0:00:49.610000', '0:00:59.750000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:07.300000'), ('0:01:06.920000', '0:01:15.860000')]</t>
+          <t>('0:01:15.560000', '0:01:28')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=20.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=19.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=1.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=66.92']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=75.56</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G#:dim7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D:dim7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:21.140000', '0:00:27.920000')]</t>
+          <t>('0:01:16.400000', '0:01:20.720000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:46.520000', '0:00:48.940000')]</t>
+          <t>('0:01:02.360000', '0:01:08.270000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=76.4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=62.36</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>jaah_50</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>jaah_33</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:maj7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Db:min7', 'Gb:7', 'Cb:maj7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:00:16.600000', '0:00:21.740000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:02.190000', '0:00:05.120000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-50#t=16.6</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-33#t=2.19</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['Ab', 'Eb', 'Bb/3']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:58.920000', '0:01:06.100000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:07.900000', '0:00:16.080000')]</t>
+          <t>('0:00:25.942000', '0:00:29.102000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=58.92</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=25.942</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:09.607823')]</t>
+          <t>('0:00:35.920000', '0:00:47.140000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:04.605000', '0:00:16.261000')]</t>
+          <t>('0:01:54.680000', '0:02:12.880000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=0.440395']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=35.92</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=4.605']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=114.68</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
